--- a/Bases_de_Dados_(2022-2023)/India I-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/India I-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['11', '54']</t>
   </si>
   <si>
+    <t>['39', '51', '72', '77', '90+6']</t>
+  </si>
+  <si>
+    <t>['25', '89']</t>
+  </si>
+  <si>
     <t>['12', '61']</t>
   </si>
   <si>
@@ -716,6 +722,15 @@
   </si>
   <si>
     <t>['13', '66', '73', '79']</t>
+  </si>
+  <si>
+    <t>['53', '56']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['64', '70']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1599,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1703,7 +1718,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2085,7 +2100,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -2276,7 +2291,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2745,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT9">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3040,7 +3055,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -3422,7 +3437,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3512,7 +3527,7 @@
         <v>1.73</v>
       </c>
       <c r="AT13">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3995,7 +4010,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4273,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT17">
         <v>0.64</v>
@@ -4658,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4759,7 +4774,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5228,7 +5243,7 @@
         <v>0.5</v>
       </c>
       <c r="AS22">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5422,7 +5437,7 @@
         <v>2.18</v>
       </c>
       <c r="AT23">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU23">
         <v>1.55</v>
@@ -5523,7 +5538,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5613,7 +5628,7 @@
         <v>2.8</v>
       </c>
       <c r="AT24">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU24">
         <v>1.04</v>
@@ -5905,7 +5920,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6096,7 +6111,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6377,7 +6392,7 @@
         <v>1.45</v>
       </c>
       <c r="AT28">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU28">
         <v>1.77</v>
@@ -6565,7 +6580,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>0.64</v>
@@ -6669,7 +6684,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7051,7 +7066,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7242,7 +7257,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7329,7 +7344,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT33">
         <v>0.55</v>
@@ -7523,7 +7538,7 @@
         <v>2.2</v>
       </c>
       <c r="AT34">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU34">
         <v>1.32</v>
@@ -8006,7 +8021,7 @@
         <v>78</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8096,7 +8111,7 @@
         <v>0.64</v>
       </c>
       <c r="AT37">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU37">
         <v>0.96</v>
@@ -8197,7 +8212,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8287,7 +8302,7 @@
         <v>2.64</v>
       </c>
       <c r="AT38">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU38">
         <v>1.73</v>
@@ -8388,7 +8403,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8961,7 +8976,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9048,7 +9063,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT42">
         <v>0.55</v>
@@ -9152,7 +9167,7 @@
         <v>78</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9343,7 +9358,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9812,10 +9827,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU46">
         <v>1.93</v>
@@ -10298,7 +10313,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10576,10 +10591,10 @@
         <v>0.67</v>
       </c>
       <c r="AS50">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU50">
         <v>1.77</v>
@@ -10680,7 +10695,7 @@
         <v>78</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10767,7 +10782,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
         <v>1.3</v>
@@ -11062,7 +11077,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11253,7 +11268,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11343,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU54">
         <v>1.28</v>
@@ -11534,7 +11549,7 @@
         <v>2.27</v>
       </c>
       <c r="AT55">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU55">
         <v>1.3</v>
@@ -11635,7 +11650,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11722,7 +11737,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT56">
         <v>0.55</v>
@@ -12017,7 +12032,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12298,7 +12313,7 @@
         <v>2.2</v>
       </c>
       <c r="AT59">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU59">
         <v>1.48</v>
@@ -12489,7 +12504,7 @@
         <v>1.73</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU60">
         <v>2.41</v>
@@ -12677,7 +12692,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>1.3</v>
@@ -12781,7 +12796,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12871,7 +12886,7 @@
         <v>0.64</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU62">
         <v>0.98</v>
@@ -13163,7 +13178,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13250,10 +13265,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT64">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU64">
         <v>1.92</v>
@@ -13545,7 +13560,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13736,7 +13751,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13826,7 +13841,7 @@
         <v>0.64</v>
       </c>
       <c r="AT67">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU67">
         <v>0.97</v>
@@ -14118,7 +14133,7 @@
         <v>78</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14205,10 +14220,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT69">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU69">
         <v>1.25</v>
@@ -14309,7 +14324,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14396,7 +14411,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14500,7 +14515,7 @@
         <v>78</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14781,7 +14796,7 @@
         <v>2.2</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU72">
         <v>1.59</v>
@@ -14882,7 +14897,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14969,10 +14984,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT73">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15073,7 +15088,7 @@
         <v>78</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15160,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT74">
         <v>1.91</v>
@@ -15264,7 +15279,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15545,7 +15560,7 @@
         <v>1.45</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU76">
         <v>1.75</v>
@@ -15927,7 +15942,7 @@
         <v>2.8</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU78">
         <v>1.21</v>
@@ -16028,7 +16043,7 @@
         <v>122</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16115,7 +16130,7 @@
         <v>0.57</v>
       </c>
       <c r="AS79">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16219,7 +16234,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16691,7 +16706,7 @@
         <v>1.45</v>
       </c>
       <c r="AT82">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU82">
         <v>1.75</v>
@@ -16792,7 +16807,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -16983,7 +16998,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17070,10 +17085,10 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT84">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU84">
         <v>1.16</v>
@@ -17455,7 +17470,7 @@
         <v>2.64</v>
       </c>
       <c r="AT86">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU86">
         <v>1.9</v>
@@ -17556,7 +17571,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17747,7 +17762,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17834,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT88">
         <v>1.27</v>
@@ -17938,7 +17953,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18129,7 +18144,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18216,10 +18231,10 @@
         <v>1.17</v>
       </c>
       <c r="AS90">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT90">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>2.02</v>
@@ -18320,7 +18335,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18410,7 +18425,7 @@
         <v>2.18</v>
       </c>
       <c r="AT91">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18598,7 +18613,7 @@
         <v>0.63</v>
       </c>
       <c r="AS92">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT92">
         <v>0.55</v>
@@ -18702,7 +18717,7 @@
         <v>147</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18893,7 +18908,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19084,7 +19099,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19174,7 +19189,7 @@
         <v>2.27</v>
       </c>
       <c r="AT95">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>1.44</v>
@@ -19275,7 +19290,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19744,7 +19759,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT98">
         <v>1.27</v>
@@ -20039,7 +20054,7 @@
         <v>104</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20129,7 +20144,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU100">
         <v>1.14</v>
@@ -20230,7 +20245,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20317,7 +20332,7 @@
         <v>0.71</v>
       </c>
       <c r="AS101">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT101">
         <v>1.27</v>
@@ -20421,7 +20436,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20511,7 +20526,7 @@
         <v>2.27</v>
       </c>
       <c r="AT102">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU102">
         <v>1.55</v>
@@ -20612,7 +20627,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20994,7 +21009,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21084,7 +21099,7 @@
         <v>2.64</v>
       </c>
       <c r="AT105">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU105">
         <v>1.82</v>
@@ -21376,7 +21391,7 @@
         <v>78</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21463,7 +21478,7 @@
         <v>1.67</v>
       </c>
       <c r="AS107">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT107">
         <v>1.91</v>
@@ -21657,7 +21672,7 @@
         <v>2.18</v>
       </c>
       <c r="AT108">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU108">
         <v>1.79</v>
@@ -21758,7 +21773,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21949,7 +21964,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22140,7 +22155,7 @@
         <v>78</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22227,7 +22242,7 @@
         <v>0.89</v>
       </c>
       <c r="AS111">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT111">
         <v>1.27</v>
@@ -22331,7 +22346,7 @@
         <v>160</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22418,7 +22433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT112">
         <v>1.3</v>
@@ -22612,7 +22627,7 @@
         <v>2.2</v>
       </c>
       <c r="AT113">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU113">
         <v>1.69</v>
@@ -22713,7 +22728,7 @@
         <v>78</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22803,7 +22818,7 @@
         <v>2.27</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU114">
         <v>1.5</v>
@@ -22994,7 +23009,7 @@
         <v>2.8</v>
       </c>
       <c r="AT115">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU115">
         <v>1.2</v>
@@ -23373,7 +23388,7 @@
         <v>1.1</v>
       </c>
       <c r="AS117">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
         <v>1.27</v>
@@ -23477,7 +23492,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23758,7 +23773,7 @@
         <v>2.8</v>
       </c>
       <c r="AT119">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU119">
         <v>1.33</v>
@@ -23859,7 +23874,7 @@
         <v>166</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24331,7 +24346,7 @@
         <v>1.73</v>
       </c>
       <c r="AT122">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.8</v>
@@ -24432,7 +24447,7 @@
         <v>78</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24519,7 +24534,7 @@
         <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT123">
         <v>1.91</v>
@@ -24623,7 +24638,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24713,7 +24728,7 @@
         <v>2.64</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU124">
         <v>1.92</v>
@@ -24901,7 +24916,7 @@
         <v>0.6</v>
       </c>
       <c r="AS125">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT125">
         <v>0.55</v>
@@ -25005,7 +25020,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -25196,7 +25211,7 @@
         <v>172</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25338,6 +25353,770 @@
       </c>
       <c r="BK127">
         <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5561417</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44996.22916666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>66</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>78</v>
+      </c>
+      <c r="P128" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q128">
+        <v>10</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>12</v>
+      </c>
+      <c r="T128">
+        <v>3.4</v>
+      </c>
+      <c r="U128">
+        <v>2.14</v>
+      </c>
+      <c r="V128">
+        <v>2.92</v>
+      </c>
+      <c r="W128">
+        <v>1.38</v>
+      </c>
+      <c r="X128">
+        <v>2.9</v>
+      </c>
+      <c r="Y128">
+        <v>2.74</v>
+      </c>
+      <c r="Z128">
+        <v>1.42</v>
+      </c>
+      <c r="AA128">
+        <v>5.8</v>
+      </c>
+      <c r="AB128">
+        <v>1.1</v>
+      </c>
+      <c r="AC128">
+        <v>2.75</v>
+      </c>
+      <c r="AD128">
+        <v>3.1</v>
+      </c>
+      <c r="AE128">
+        <v>2.35</v>
+      </c>
+      <c r="AF128">
+        <v>1.01</v>
+      </c>
+      <c r="AG128">
+        <v>9.4</v>
+      </c>
+      <c r="AH128">
+        <v>1.25</v>
+      </c>
+      <c r="AI128">
+        <v>3.42</v>
+      </c>
+      <c r="AJ128">
+        <v>1.88</v>
+      </c>
+      <c r="AK128">
+        <v>1.88</v>
+      </c>
+      <c r="AL128">
+        <v>1.68</v>
+      </c>
+      <c r="AM128">
+        <v>2.06</v>
+      </c>
+      <c r="AN128">
+        <v>1.56</v>
+      </c>
+      <c r="AO128">
+        <v>1.3</v>
+      </c>
+      <c r="AP128">
+        <v>1.42</v>
+      </c>
+      <c r="AQ128">
+        <v>1.8</v>
+      </c>
+      <c r="AR128">
+        <v>1.1</v>
+      </c>
+      <c r="AS128">
+        <v>1.64</v>
+      </c>
+      <c r="AT128">
+        <v>1.27</v>
+      </c>
+      <c r="AU128">
+        <v>2</v>
+      </c>
+      <c r="AV128">
+        <v>1.34</v>
+      </c>
+      <c r="AW128">
+        <v>3.34</v>
+      </c>
+      <c r="AX128">
+        <v>2.2</v>
+      </c>
+      <c r="AY128">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128">
+        <v>1.93</v>
+      </c>
+      <c r="BA128">
+        <v>1.27</v>
+      </c>
+      <c r="BB128">
+        <v>1.39</v>
+      </c>
+      <c r="BC128">
+        <v>1.72</v>
+      </c>
+      <c r="BD128">
+        <v>2.15</v>
+      </c>
+      <c r="BE128">
+        <v>3</v>
+      </c>
+      <c r="BF128">
+        <v>7</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>9</v>
+      </c>
+      <c r="BI128">
+        <v>7</v>
+      </c>
+      <c r="BJ128">
+        <v>16</v>
+      </c>
+      <c r="BK128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5561418</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44996.22916666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>67</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>7</v>
+      </c>
+      <c r="O129" t="s">
+        <v>173</v>
+      </c>
+      <c r="P129" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q129">
+        <v>10</v>
+      </c>
+      <c r="R129">
+        <v>6</v>
+      </c>
+      <c r="S129">
+        <v>16</v>
+      </c>
+      <c r="T129">
+        <v>1.71</v>
+      </c>
+      <c r="U129">
+        <v>2.4</v>
+      </c>
+      <c r="V129">
+        <v>5.75</v>
+      </c>
+      <c r="W129">
+        <v>1.25</v>
+      </c>
+      <c r="X129">
+        <v>3.35</v>
+      </c>
+      <c r="Y129">
+        <v>2.1</v>
+      </c>
+      <c r="Z129">
+        <v>1.57</v>
+      </c>
+      <c r="AA129">
+        <v>4.6</v>
+      </c>
+      <c r="AB129">
+        <v>1.15</v>
+      </c>
+      <c r="AC129">
+        <v>1.3</v>
+      </c>
+      <c r="AD129">
+        <v>5</v>
+      </c>
+      <c r="AE129">
+        <v>7.75</v>
+      </c>
+      <c r="AF129">
+        <v>1.01</v>
+      </c>
+      <c r="AG129">
+        <v>15</v>
+      </c>
+      <c r="AH129">
+        <v>1.14</v>
+      </c>
+      <c r="AI129">
+        <v>4.7</v>
+      </c>
+      <c r="AJ129">
+        <v>1.38</v>
+      </c>
+      <c r="AK129">
+        <v>2.53</v>
+      </c>
+      <c r="AL129">
+        <v>1.71</v>
+      </c>
+      <c r="AM129">
+        <v>1.9</v>
+      </c>
+      <c r="AN129">
+        <v>1.07</v>
+      </c>
+      <c r="AO129">
+        <v>1.14</v>
+      </c>
+      <c r="AP129">
+        <v>3.1</v>
+      </c>
+      <c r="AQ129">
+        <v>1.7</v>
+      </c>
+      <c r="AR129">
+        <v>0.6</v>
+      </c>
+      <c r="AS129">
+        <v>1.82</v>
+      </c>
+      <c r="AT129">
+        <v>0.55</v>
+      </c>
+      <c r="AU129">
+        <v>2.1</v>
+      </c>
+      <c r="AV129">
+        <v>1.26</v>
+      </c>
+      <c r="AW129">
+        <v>3.36</v>
+      </c>
+      <c r="AX129">
+        <v>1.17</v>
+      </c>
+      <c r="AY129">
+        <v>10.75</v>
+      </c>
+      <c r="AZ129">
+        <v>6.3</v>
+      </c>
+      <c r="BA129">
+        <v>1.29</v>
+      </c>
+      <c r="BB129">
+        <v>1.47</v>
+      </c>
+      <c r="BC129">
+        <v>1.85</v>
+      </c>
+      <c r="BD129">
+        <v>2.38</v>
+      </c>
+      <c r="BE129">
+        <v>3.1</v>
+      </c>
+      <c r="BF129">
+        <v>9</v>
+      </c>
+      <c r="BG129">
+        <v>4</v>
+      </c>
+      <c r="BH129">
+        <v>8</v>
+      </c>
+      <c r="BI129">
+        <v>4</v>
+      </c>
+      <c r="BJ129">
+        <v>17</v>
+      </c>
+      <c r="BK129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5561419</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>78</v>
+      </c>
+      <c r="P130" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q130">
+        <v>6</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>3.55</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>2.6</v>
+      </c>
+      <c r="W130">
+        <v>1.38</v>
+      </c>
+      <c r="X130">
+        <v>2.65</v>
+      </c>
+      <c r="Y130">
+        <v>2.7</v>
+      </c>
+      <c r="Z130">
+        <v>1.36</v>
+      </c>
+      <c r="AA130">
+        <v>7.25</v>
+      </c>
+      <c r="AB130">
+        <v>1.07</v>
+      </c>
+      <c r="AC130">
+        <v>3.1</v>
+      </c>
+      <c r="AD130">
+        <v>3.2</v>
+      </c>
+      <c r="AE130">
+        <v>2.1</v>
+      </c>
+      <c r="AF130">
+        <v>1.04</v>
+      </c>
+      <c r="AG130">
+        <v>9.75</v>
+      </c>
+      <c r="AH130">
+        <v>1.27</v>
+      </c>
+      <c r="AI130">
+        <v>3.2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.95</v>
+      </c>
+      <c r="AK130">
+        <v>1.81</v>
+      </c>
+      <c r="AL130">
+        <v>1.64</v>
+      </c>
+      <c r="AM130">
+        <v>2</v>
+      </c>
+      <c r="AN130">
+        <v>1.62</v>
+      </c>
+      <c r="AO130">
+        <v>1.31</v>
+      </c>
+      <c r="AP130">
+        <v>1.3</v>
+      </c>
+      <c r="AQ130">
+        <v>1.1</v>
+      </c>
+      <c r="AR130">
+        <v>1</v>
+      </c>
+      <c r="AS130">
+        <v>1</v>
+      </c>
+      <c r="AT130">
+        <v>1.18</v>
+      </c>
+      <c r="AU130">
+        <v>1.2</v>
+      </c>
+      <c r="AV130">
+        <v>1.44</v>
+      </c>
+      <c r="AW130">
+        <v>2.64</v>
+      </c>
+      <c r="AX130">
+        <v>2.13</v>
+      </c>
+      <c r="AY130">
+        <v>7.4</v>
+      </c>
+      <c r="AZ130">
+        <v>2</v>
+      </c>
+      <c r="BA130">
+        <v>1.31</v>
+      </c>
+      <c r="BB130">
+        <v>1.51</v>
+      </c>
+      <c r="BC130">
+        <v>1.92</v>
+      </c>
+      <c r="BD130">
+        <v>2.48</v>
+      </c>
+      <c r="BE130">
+        <v>3.3</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>9</v>
+      </c>
+      <c r="BH130">
+        <v>8</v>
+      </c>
+      <c r="BI130">
+        <v>12</v>
+      </c>
+      <c r="BJ130">
+        <v>11</v>
+      </c>
+      <c r="BK130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5561420</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>75</v>
+      </c>
+      <c r="H131" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131" t="s">
+        <v>174</v>
+      </c>
+      <c r="P131" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>9</v>
+      </c>
+      <c r="S131">
+        <v>14</v>
+      </c>
+      <c r="T131">
+        <v>4</v>
+      </c>
+      <c r="U131">
+        <v>2.14</v>
+      </c>
+      <c r="V131">
+        <v>2.48</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>2.85</v>
+      </c>
+      <c r="Y131">
+        <v>2.5</v>
+      </c>
+      <c r="Z131">
+        <v>1.41</v>
+      </c>
+      <c r="AA131">
+        <v>6.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.09</v>
+      </c>
+      <c r="AC131">
+        <v>3.3</v>
+      </c>
+      <c r="AD131">
+        <v>3.35</v>
+      </c>
+      <c r="AE131">
+        <v>2</v>
+      </c>
+      <c r="AF131">
+        <v>1.02</v>
+      </c>
+      <c r="AG131">
+        <v>12</v>
+      </c>
+      <c r="AH131">
+        <v>1.21</v>
+      </c>
+      <c r="AI131">
+        <v>3.7</v>
+      </c>
+      <c r="AJ131">
+        <v>1.79</v>
+      </c>
+      <c r="AK131">
+        <v>1.97</v>
+      </c>
+      <c r="AL131">
+        <v>1.55</v>
+      </c>
+      <c r="AM131">
+        <v>2.15</v>
+      </c>
+      <c r="AN131">
+        <v>1.72</v>
+      </c>
+      <c r="AO131">
+        <v>1.22</v>
+      </c>
+      <c r="AP131">
+        <v>1.25</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>0.6</v>
+      </c>
+      <c r="AS131">
+        <v>1</v>
+      </c>
+      <c r="AT131">
+        <v>0.64</v>
+      </c>
+      <c r="AU131">
+        <v>1.19</v>
+      </c>
+      <c r="AV131">
+        <v>1.33</v>
+      </c>
+      <c r="AW131">
+        <v>2.52</v>
+      </c>
+      <c r="AX131">
+        <v>2.7</v>
+      </c>
+      <c r="AY131">
+        <v>7.5</v>
+      </c>
+      <c r="AZ131">
+        <v>1.66</v>
+      </c>
+      <c r="BA131">
+        <v>1.31</v>
+      </c>
+      <c r="BB131">
+        <v>1.49</v>
+      </c>
+      <c r="BC131">
+        <v>1.87</v>
+      </c>
+      <c r="BD131">
+        <v>2.42</v>
+      </c>
+      <c r="BE131">
+        <v>3.3</v>
+      </c>
+      <c r="BF131">
+        <v>8</v>
+      </c>
+      <c r="BG131">
+        <v>8</v>
+      </c>
+      <c r="BH131">
+        <v>12</v>
+      </c>
+      <c r="BI131">
+        <v>3</v>
+      </c>
+      <c r="BJ131">
+        <v>20</v>
+      </c>
+      <c r="BK131">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/India I-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/India I-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>['25', '89']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['36', '49']</t>
   </si>
   <si>
     <t>['12', '61']</t>
@@ -1092,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT2">
         <v>0.55</v>
@@ -1718,7 +1724,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1996,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT5">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2100,7 +2106,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -2190,7 +2196,7 @@
         <v>1.73</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2291,7 +2297,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -3055,7 +3061,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -3145,7 +3151,7 @@
         <v>1.45</v>
       </c>
       <c r="AT11">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU11">
         <v>1.32</v>
@@ -3333,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT12">
         <v>0.55</v>
@@ -3437,7 +3443,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4010,7 +4016,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4097,7 +4103,7 @@
         <v>1.5</v>
       </c>
       <c r="AS16">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT16">
         <v>1.27</v>
@@ -4482,7 +4488,7 @@
         <v>2.64</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4774,7 +4780,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5246,7 +5252,7 @@
         <v>1.82</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU22">
         <v>2.31</v>
@@ -5538,7 +5544,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5625,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT24">
         <v>0.64</v>
@@ -5920,7 +5926,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6111,7 +6117,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6201,7 +6207,7 @@
         <v>2.18</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU27">
         <v>1.79</v>
@@ -6684,7 +6690,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6965,7 +6971,7 @@
         <v>2.18</v>
       </c>
       <c r="AT31">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>1.76</v>
@@ -7066,7 +7072,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7257,7 +7263,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7535,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT34">
         <v>0.55</v>
@@ -8021,7 +8027,7 @@
         <v>78</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -8212,7 +8218,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8403,7 +8409,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8872,7 +8878,7 @@
         <v>1.75</v>
       </c>
       <c r="AS41">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT41">
         <v>1.27</v>
@@ -8976,7 +8982,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9167,7 +9173,7 @@
         <v>78</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9257,7 +9263,7 @@
         <v>0.64</v>
       </c>
       <c r="AT43">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU43">
         <v>1.01</v>
@@ -9358,7 +9364,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9636,7 +9642,7 @@
         <v>0.6</v>
       </c>
       <c r="AS45">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT45">
         <v>0.64</v>
@@ -10313,7 +10319,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10403,7 +10409,7 @@
         <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU49">
         <v>1.57</v>
@@ -10695,7 +10701,7 @@
         <v>78</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10785,7 +10791,7 @@
         <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -10973,7 +10979,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT52">
         <v>1.27</v>
@@ -11077,7 +11083,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11268,7 +11274,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11650,7 +11656,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12032,7 +12038,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12119,7 +12125,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT58">
         <v>0.64</v>
@@ -12310,7 +12316,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT59">
         <v>1.27</v>
@@ -12695,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU61">
         <v>1.32</v>
@@ -12796,7 +12802,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13178,7 +13184,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -13456,7 +13462,7 @@
         <v>0.83</v>
       </c>
       <c r="AS65">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT65">
         <v>0.55</v>
@@ -13560,7 +13566,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13647,10 +13653,10 @@
         <v>0.2</v>
       </c>
       <c r="AS66">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU66">
         <v>1.44</v>
@@ -13751,7 +13757,7 @@
         <v>118</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14133,7 +14139,7 @@
         <v>78</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14324,7 +14330,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14414,7 +14420,7 @@
         <v>1.64</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU70">
         <v>1.63</v>
@@ -14515,7 +14521,7 @@
         <v>78</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14793,7 +14799,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT72">
         <v>1.18</v>
@@ -14897,7 +14903,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15088,7 +15094,7 @@
         <v>78</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15279,7 +15285,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15369,7 +15375,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU75">
         <v>1.2</v>
@@ -15939,7 +15945,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT78">
         <v>1.18</v>
@@ -16043,7 +16049,7 @@
         <v>122</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16133,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU79">
         <v>1.16</v>
@@ -16234,7 +16240,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16512,7 +16518,7 @@
         <v>0.71</v>
       </c>
       <c r="AS81">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
         <v>0.55</v>
@@ -16807,7 +16813,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -16998,7 +17004,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17571,7 +17577,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17762,7 +17768,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17953,7 +17959,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18043,7 +18049,7 @@
         <v>2.27</v>
       </c>
       <c r="AT89">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU89">
         <v>1.33</v>
@@ -18144,7 +18150,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18335,7 +18341,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18717,7 +18723,7 @@
         <v>147</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18908,7 +18914,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -18995,7 +19001,7 @@
         <v>1.29</v>
       </c>
       <c r="AS94">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT94">
         <v>1.91</v>
@@ -19099,7 +19105,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19290,7 +19296,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20054,7 +20060,7 @@
         <v>104</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20245,7 +20251,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20436,7 +20442,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20627,7 +20633,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -21009,7 +21015,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -21391,7 +21397,7 @@
         <v>78</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21773,7 +21779,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21863,7 +21869,7 @@
         <v>0.64</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU109">
         <v>0.97</v>
@@ -21964,7 +21970,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22155,7 +22161,7 @@
         <v>78</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22346,7 +22352,7 @@
         <v>160</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22436,7 +22442,7 @@
         <v>1.82</v>
       </c>
       <c r="AT112">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU112">
         <v>2.18</v>
@@ -22624,7 +22630,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT113">
         <v>0.64</v>
@@ -22728,7 +22734,7 @@
         <v>78</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23006,7 +23012,7 @@
         <v>0.67</v>
       </c>
       <c r="AS115">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT115">
         <v>0.55</v>
@@ -23200,7 +23206,7 @@
         <v>1.73</v>
       </c>
       <c r="AT116">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU116">
         <v>1.9</v>
@@ -23492,7 +23498,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23770,7 +23776,7 @@
         <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT119">
         <v>1.27</v>
@@ -23874,7 +23880,7 @@
         <v>166</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24447,7 +24453,7 @@
         <v>78</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24638,7 +24644,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -25020,7 +25026,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -25211,7 +25217,7 @@
         <v>172</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25301,7 +25307,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU127">
         <v>1.18</v>
@@ -25593,7 +25599,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -25784,7 +25790,7 @@
         <v>78</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25975,7 +25981,7 @@
         <v>174</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26117,6 +26123,388 @@
       </c>
       <c r="BK131">
         <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5561421</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>65</v>
+      </c>
+      <c r="H132" t="s">
+        <v>74</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>175</v>
+      </c>
+      <c r="P132" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>7</v>
+      </c>
+      <c r="S132">
+        <v>10</v>
+      </c>
+      <c r="T132">
+        <v>2.7</v>
+      </c>
+      <c r="U132">
+        <v>2.05</v>
+      </c>
+      <c r="V132">
+        <v>3.1</v>
+      </c>
+      <c r="W132">
+        <v>1.39</v>
+      </c>
+      <c r="X132">
+        <v>2.86</v>
+      </c>
+      <c r="Y132">
+        <v>2.7</v>
+      </c>
+      <c r="Z132">
+        <v>1.43</v>
+      </c>
+      <c r="AA132">
+        <v>6.3</v>
+      </c>
+      <c r="AB132">
+        <v>1.08</v>
+      </c>
+      <c r="AC132">
+        <v>2.23</v>
+      </c>
+      <c r="AD132">
+        <v>3.4</v>
+      </c>
+      <c r="AE132">
+        <v>2.65</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>11</v>
+      </c>
+      <c r="AH132">
+        <v>1.23</v>
+      </c>
+      <c r="AI132">
+        <v>3.5</v>
+      </c>
+      <c r="AJ132">
+        <v>1.84</v>
+      </c>
+      <c r="AK132">
+        <v>1.92</v>
+      </c>
+      <c r="AL132">
+        <v>1.57</v>
+      </c>
+      <c r="AM132">
+        <v>2.15</v>
+      </c>
+      <c r="AN132">
+        <v>1.36</v>
+      </c>
+      <c r="AO132">
+        <v>1.3</v>
+      </c>
+      <c r="AP132">
+        <v>1.54</v>
+      </c>
+      <c r="AQ132">
+        <v>2.2</v>
+      </c>
+      <c r="AR132">
+        <v>1.3</v>
+      </c>
+      <c r="AS132">
+        <v>2.27</v>
+      </c>
+      <c r="AT132">
+        <v>1.18</v>
+      </c>
+      <c r="AU132">
+        <v>1.76</v>
+      </c>
+      <c r="AV132">
+        <v>1.58</v>
+      </c>
+      <c r="AW132">
+        <v>3.34</v>
+      </c>
+      <c r="AX132">
+        <v>2.03</v>
+      </c>
+      <c r="AY132">
+        <v>7.3</v>
+      </c>
+      <c r="AZ132">
+        <v>2.1</v>
+      </c>
+      <c r="BA132">
+        <v>1.29</v>
+      </c>
+      <c r="BB132">
+        <v>1.46</v>
+      </c>
+      <c r="BC132">
+        <v>1.84</v>
+      </c>
+      <c r="BD132">
+        <v>2.34</v>
+      </c>
+      <c r="BE132">
+        <v>3.1</v>
+      </c>
+      <c r="BF132">
+        <v>3</v>
+      </c>
+      <c r="BG132">
+        <v>7</v>
+      </c>
+      <c r="BH132">
+        <v>4</v>
+      </c>
+      <c r="BI132">
+        <v>8</v>
+      </c>
+      <c r="BJ132">
+        <v>7</v>
+      </c>
+      <c r="BK132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5561422</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44997.4375</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" t="s">
+        <v>72</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>176</v>
+      </c>
+      <c r="P133" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>3</v>
+      </c>
+      <c r="T133">
+        <v>1.9</v>
+      </c>
+      <c r="U133">
+        <v>2.25</v>
+      </c>
+      <c r="V133">
+        <v>4.75</v>
+      </c>
+      <c r="W133">
+        <v>1.27</v>
+      </c>
+      <c r="X133">
+        <v>3.15</v>
+      </c>
+      <c r="Y133">
+        <v>2.25</v>
+      </c>
+      <c r="Z133">
+        <v>1.5</v>
+      </c>
+      <c r="AA133">
+        <v>5</v>
+      </c>
+      <c r="AB133">
+        <v>1.13</v>
+      </c>
+      <c r="AC133">
+        <v>1.41</v>
+      </c>
+      <c r="AD133">
+        <v>4.15</v>
+      </c>
+      <c r="AE133">
+        <v>5.5</v>
+      </c>
+      <c r="AF133">
+        <v>1.02</v>
+      </c>
+      <c r="AG133">
+        <v>14</v>
+      </c>
+      <c r="AH133">
+        <v>1.17</v>
+      </c>
+      <c r="AI133">
+        <v>4.2</v>
+      </c>
+      <c r="AJ133">
+        <v>1.52</v>
+      </c>
+      <c r="AK133">
+        <v>2.2</v>
+      </c>
+      <c r="AL133">
+        <v>1.64</v>
+      </c>
+      <c r="AM133">
+        <v>2</v>
+      </c>
+      <c r="AN133">
+        <v>1.11</v>
+      </c>
+      <c r="AO133">
+        <v>1.18</v>
+      </c>
+      <c r="AP133">
+        <v>2.55</v>
+      </c>
+      <c r="AQ133">
+        <v>2.8</v>
+      </c>
+      <c r="AR133">
+        <v>1</v>
+      </c>
+      <c r="AS133">
+        <v>2.82</v>
+      </c>
+      <c r="AT133">
+        <v>0.91</v>
+      </c>
+      <c r="AU133">
+        <v>1.3</v>
+      </c>
+      <c r="AV133">
+        <v>1.36</v>
+      </c>
+      <c r="AW133">
+        <v>2.66</v>
+      </c>
+      <c r="AX133">
+        <v>1.39</v>
+      </c>
+      <c r="AY133">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ133">
+        <v>3.78</v>
+      </c>
+      <c r="BA133">
+        <v>1.33</v>
+      </c>
+      <c r="BB133">
+        <v>1.64</v>
+      </c>
+      <c r="BC133">
+        <v>2.02</v>
+      </c>
+      <c r="BD133">
+        <v>2.53</v>
+      </c>
+      <c r="BE133">
+        <v>3.4</v>
+      </c>
+      <c r="BF133">
+        <v>5</v>
+      </c>
+      <c r="BG133">
+        <v>4</v>
+      </c>
+      <c r="BH133">
+        <v>9</v>
+      </c>
+      <c r="BI133">
+        <v>2</v>
+      </c>
+      <c r="BJ133">
+        <v>14</v>
+      </c>
+      <c r="BK133">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
